--- a/data/trans_dic/P29_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P29_R-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5259720349883142</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5110623664465479</v>
+        <v>0.5110623664465478</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1979140488217818</v>
@@ -685,7 +685,7 @@
         <v>0.2657749309868945</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2679057407788869</v>
+        <v>0.2679057407788868</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3207903923780014</v>
@@ -697,7 +697,7 @@
         <v>0.38870522548124</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3758281778386416</v>
+        <v>0.3758281778386415</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4749763965767449</v>
+        <v>0.4709995794526399</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5456359240224118</v>
+        <v>0.5510274921199935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4943966151440187</v>
+        <v>0.495908802569952</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.457760223345393</v>
+        <v>0.4606467723322101</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1715765314790486</v>
+        <v>0.1717207750612697</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2272523109858138</v>
+        <v>0.2279061732045813</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2418823988762699</v>
+        <v>0.2417426192618248</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2389550609034042</v>
+        <v>0.2372260285258685</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2961988426533503</v>
+        <v>0.2971982868491991</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3897684610682828</v>
+        <v>0.3906204369691861</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3667905622377477</v>
+        <v>0.3701702939136925</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3478111650013854</v>
+        <v>0.3499539711529759</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5571429340768937</v>
+        <v>0.5593554880649528</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6082703835555446</v>
+        <v>0.6123889482075754</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5533431440073406</v>
+        <v>0.5581384673366647</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5593139558076021</v>
+        <v>0.5600204331264674</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2266716215010164</v>
+        <v>0.2235820297166858</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2816343936596342</v>
+        <v>0.2821574393912324</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2911882166328737</v>
+        <v>0.2919268493499736</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3009682442903516</v>
+        <v>0.3017722373859927</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3421984127669891</v>
+        <v>0.3451421922516487</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4325077223411374</v>
+        <v>0.4336904742549013</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4086239213637788</v>
+        <v>0.4108845841727947</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4102143607176304</v>
+        <v>0.4053725862051769</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.4579494995483524</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4458795493917516</v>
+        <v>0.4458795493917517</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5565424032122039</v>
+        <v>0.5567013980586268</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5716994626757507</v>
+        <v>0.5657125783247862</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5697840104845063</v>
+        <v>0.5705315103213631</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.536915361892751</v>
+        <v>0.5332723004839464</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2090266017614269</v>
+        <v>0.2073724753014844</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2651318234038</v>
+        <v>0.2663734686311748</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2966758009987724</v>
+        <v>0.2945659674227844</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3116405434522968</v>
+        <v>0.3109784587386817</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3929237577699319</v>
+        <v>0.3915326382133195</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4172321213547035</v>
+        <v>0.4150742343864823</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4367275823856857</v>
+        <v>0.4331124835269898</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.424428076557253</v>
+        <v>0.4243657285920496</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6197524043463293</v>
+        <v>0.6151520294098968</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6357695438475103</v>
+        <v>0.6353441941633552</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6357494351610923</v>
+        <v>0.6350710127211066</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6077346519517544</v>
+        <v>0.6075497289348645</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.262216801860536</v>
+        <v>0.2584164100604596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3245841213014951</v>
+        <v>0.3236109697913817</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3537788522108675</v>
+        <v>0.3560662297375175</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3623845782021174</v>
+        <v>0.3641968353346698</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4343058521131374</v>
+        <v>0.4333016602540151</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4602792995782882</v>
+        <v>0.4616743698700239</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.483326445473564</v>
+        <v>0.479514878014846</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4676387325797575</v>
+        <v>0.4667717149856497</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6443553092103378</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5965235250269936</v>
+        <v>0.5965235250269935</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.319687293066417</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5533880524200445</v>
+        <v>0.5577201093095563</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5870383992761028</v>
+        <v>0.585120620952199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6097760815149496</v>
+        <v>0.6123371590073203</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5618113453297167</v>
+        <v>0.5649420059513057</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2905155345198684</v>
+        <v>0.2893140858665452</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2856531678687714</v>
+        <v>0.2881383101609569</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3488024356201754</v>
+        <v>0.345747071475332</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3510872567622437</v>
+        <v>0.353915863568933</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4388708527094913</v>
+        <v>0.4389941991435986</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4454615436870741</v>
+        <v>0.4461775933450194</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4912970055433018</v>
+        <v>0.4899390546682643</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.464581885473952</v>
+        <v>0.4636243142410451</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6153903163182084</v>
+        <v>0.6154946622399724</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6546740772161125</v>
+        <v>0.6537273081969502</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6794234417234465</v>
+        <v>0.678964711915417</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6271139142430238</v>
+        <v>0.6319000375353594</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3511264544030936</v>
+        <v>0.3472336502390621</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3511647442462948</v>
+        <v>0.3505966698204223</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4211017836173022</v>
+        <v>0.4192404492448771</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4057057029503119</v>
+        <v>0.405163616591846</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4810801003475561</v>
+        <v>0.4819103921461137</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4948162998937617</v>
+        <v>0.4980452243590763</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5450985497599593</v>
+        <v>0.5412458877120081</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5080500208999089</v>
+        <v>0.5077652602504839</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.512058256972746</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4872946500568989</v>
+        <v>0.4872946500568988</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5696737819331309</v>
+        <v>0.5646341732876382</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5357286215267841</v>
+        <v>0.5447062898746214</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5871816436527719</v>
+        <v>0.5942449399562405</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5363713280588261</v>
+        <v>0.5388423527943697</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3401698675486359</v>
+        <v>0.3379491022577166</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.322739485805167</v>
+        <v>0.3228048011307941</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3423680202394854</v>
+        <v>0.3409210615602422</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3641256155417574</v>
+        <v>0.3666891697158693</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4849889297240553</v>
+        <v>0.4857423261951957</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4465302886305207</v>
+        <v>0.4479136386008448</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4786902636483746</v>
+        <v>0.4813833166934809</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4654240461509551</v>
+        <v>0.465507150861056</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6617061072000583</v>
+        <v>0.6622001738381904</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.628891815432211</v>
+        <v>0.6341276484909422</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6714947182766789</v>
+        <v>0.6776744276490698</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6053917647041793</v>
+        <v>0.6066962648253338</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4445170443484797</v>
+        <v>0.4392645227555642</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4200020796721065</v>
+        <v>0.4189726163848841</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4373357279002721</v>
+        <v>0.4318347543297749</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4263462636050326</v>
+        <v>0.4263977642788437</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5545270028830982</v>
+        <v>0.5552446968356979</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5198004928174875</v>
+        <v>0.5191270490925198</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5461084299695387</v>
+        <v>0.5462501383714936</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.510172240577313</v>
+        <v>0.5120074156185108</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3253409425301974</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3511005711785443</v>
+        <v>0.3511005711785444</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.4196509646578013</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.558516087785653</v>
+        <v>0.5611692444132138</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5805706184828413</v>
+        <v>0.5801127218622537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5749870434663478</v>
+        <v>0.5751216458509579</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5536208670799154</v>
+        <v>0.5510443980936468</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2505273869721305</v>
+        <v>0.2504270197571412</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2797610696425492</v>
+        <v>0.2812327380256126</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3092008114473588</v>
+        <v>0.3098289431086835</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3381919898609118</v>
+        <v>0.3370095607747555</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4074896548549162</v>
+        <v>0.4089731261016925</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4326853419614348</v>
+        <v>0.4325501506049315</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4442405144235638</v>
+        <v>0.4429027490800582</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4469353826553608</v>
+        <v>0.4458547075892961</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5944290928139699</v>
+        <v>0.5967408757315357</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6167855427171008</v>
+        <v>0.6145090319821006</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6093496229753712</v>
+        <v>0.6091466956563059</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5910073996512574</v>
+        <v>0.5901191062610418</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2817390085821906</v>
+        <v>0.2825879742061599</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.313185208364876</v>
+        <v>0.3131476377702343</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3432473614574404</v>
+        <v>0.3406266654518174</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.366309588675409</v>
+        <v>0.3657428855020391</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4318389852013849</v>
+        <v>0.4331880455319513</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4565507429610875</v>
+        <v>0.4561216560487397</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4678940720040948</v>
+        <v>0.4676955776831301</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4699157266144733</v>
+        <v>0.4692192786060285</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>277453</v>
+        <v>275130</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>569608</v>
+        <v>575237</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>557202</v>
+        <v>558906</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>227191</v>
+        <v>228624</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>158251</v>
+        <v>158384</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>254506</v>
+        <v>255239</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>304402</v>
+        <v>304226</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>148609</v>
+        <v>147533</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>446216</v>
+        <v>447721</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>843406</v>
+        <v>845249</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>874981</v>
+        <v>883043</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>388929</v>
+        <v>391326</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>325450</v>
+        <v>326742</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>634995</v>
+        <v>639294</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>623637</v>
+        <v>629041</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>277593</v>
+        <v>277944</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>209067</v>
+        <v>206217</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>315410</v>
+        <v>315996</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>366452</v>
+        <v>367382</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>187175</v>
+        <v>187675</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>515513</v>
+        <v>519948</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>935887</v>
+        <v>938447</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>974775</v>
+        <v>980168</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>458710</v>
+        <v>453296</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>599894</v>
+        <v>600065</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>558592</v>
+        <v>552742</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>517834</v>
+        <v>518513</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>515107</v>
+        <v>511612</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>221054</v>
+        <v>219304</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>289868</v>
+        <v>291225</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>297657</v>
+        <v>295540</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>346868</v>
+        <v>346131</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>839062</v>
+        <v>836091</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>863824</v>
+        <v>859357</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>835081</v>
+        <v>828168</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>879595</v>
+        <v>879465</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>668027</v>
+        <v>663069</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>621193</v>
+        <v>620778</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>577785</v>
+        <v>577168</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>583050</v>
+        <v>582873</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>277304</v>
+        <v>273285</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>354867</v>
+        <v>353803</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>354949</v>
+        <v>357244</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>403349</v>
+        <v>405366</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>927431</v>
+        <v>925286</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>952948</v>
+        <v>955836</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>924184</v>
+        <v>916896</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>969145</v>
+        <v>967348</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>620677</v>
+        <v>625536</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>519596</v>
+        <v>517899</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>502309</v>
+        <v>504418</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>587404</v>
+        <v>590677</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>288755</v>
+        <v>287561</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>249888</v>
+        <v>252062</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>268559</v>
+        <v>266207</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>367814</v>
+        <v>370777</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>928446</v>
+        <v>928707</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>783972</v>
+        <v>785232</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>782983</v>
+        <v>780819</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>972460</v>
+        <v>970456</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>690218</v>
+        <v>690335</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>579462</v>
+        <v>578624</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>559681</v>
+        <v>559303</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>655681</v>
+        <v>660686</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>348999</v>
+        <v>345129</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>307197</v>
+        <v>306700</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>324226</v>
+        <v>322793</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>425034</v>
+        <v>424466</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1017741</v>
+        <v>1019498</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>870832</v>
+        <v>876514</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>868727</v>
+        <v>862587</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1063448</v>
+        <v>1062852</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>254758</v>
+        <v>252504</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>269484</v>
+        <v>274000</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>296883</v>
+        <v>300454</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>522825</v>
+        <v>525234</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>116052</v>
+        <v>115294</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>146116</v>
+        <v>146145</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>167260</v>
+        <v>166553</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>329945</v>
+        <v>332268</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>382345</v>
+        <v>382939</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>426775</v>
+        <v>428097</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>475888</v>
+        <v>478565</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>875404</v>
+        <v>875560</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>295915</v>
+        <v>296136</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>316347</v>
+        <v>318981</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>339512</v>
+        <v>342636</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>590103</v>
+        <v>591374</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>151651</v>
+        <v>149859</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>190150</v>
+        <v>189684</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>213656</v>
+        <v>210968</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>386325</v>
+        <v>386371</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>437166</v>
+        <v>437732</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>496803</v>
+        <v>496160</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>542911</v>
+        <v>543052</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>959570</v>
+        <v>963021</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1804470</v>
+        <v>1813042</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1979249</v>
+        <v>1977688</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1934960</v>
+        <v>1935413</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1924382</v>
+        <v>1915426</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>830491</v>
+        <v>830158</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>990565</v>
+        <v>995776</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1088468</v>
+        <v>1090680</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1247496</v>
+        <v>1243134</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2667345</v>
+        <v>2677055</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3007119</v>
+        <v>3006180</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3058813</v>
+        <v>3049602</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3202163</v>
+        <v>3194421</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1920499</v>
+        <v>1927968</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2102711</v>
+        <v>2094950</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2050598</v>
+        <v>2049915</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2054337</v>
+        <v>2051249</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>933956</v>
+        <v>936770</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1108912</v>
+        <v>1108779</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1208321</v>
+        <v>1199096</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1351214</v>
+        <v>1349123</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2826731</v>
+        <v>2835561</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>3172982</v>
+        <v>3169999</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>3221679</v>
+        <v>3220312</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>3366811</v>
+        <v>3361821</v>
       </c>
     </row>
     <row r="24">
